--- a/upload/temp/SOAL USBN BAHASA INDONESIA.xlsx
+++ b/upload/temp/SOAL USBN BAHASA INDONESIA.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FNH\Music\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="11310" windowHeight="7935"/>
   </bookViews>
@@ -730,95 +735,6 @@
     <t>Bijaksana</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Cermati kutipan novel berikut! 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pukul 23.30 malam.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                                     
-     Dengan hati-hati, Asma meletakkan kamera DSLR yang lensanya baru dia bersihkan di sisi ranjang, lalu membuka netbook, Sekar sudah menghilang dari monitor. Masih ada waktu. Gadis itu meraih netbook dan dengan cepat jemari lentiknya mengetik sebuah nama.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Beberapa link tentang Ashima dan Yunnan muncul. Asma menelusuri satu per satu sebelum mengklik sebuah website yang sepertinya terlihat lebih informatif. Ashima, apakah yang memberi gadis itu kekuatan untuk mempercayakan hatinya hanya pada Ahei? Berakhir bahagiakah kisah cinta mereka? </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Penginapan sederhana yang AC-nya terlalu dingin membuat Asma merapatkan jaket. Kedua mata gadis itu masih merayapi layar netbook, sebelum kemudian menarik napas.
-(Assalamualaikum Beijing karya Asma Nadia)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Latar tempat yang terdapat dalam kutipan novel tersebut adalah ....
-</t>
-    </r>
-  </si>
-  <si>
     <t>Ruang tamu</t>
   </si>
   <si>
@@ -2498,11 +2414,21 @@
   <si>
     <t>2.5</t>
   </si>
+  <si>
+    <t xml:space="preserve">Cermati kutipan novel berikut! 
+Pukul 23.30 malam.                                                                                                                                     
+     Dengan hati-hati, Asma meletakkan kamera DSLR yang lensanya baru dia bersihkan di sisi ranjang, lalu membuka netbook, Sekar sudah menghilang dari monitor. Masih ada waktu. Gadis itu meraih netbook dan dengan cepat jemari lentiknya mengetik sebuah nama.
+    Beberapa link tentang Ashima dan Yunnan muncul. Asma menelusuri satu per satu sebelum mengklik sebuah website yang sepertinya terlihat lebih informatif. Ashima, apakah yang memberi gadis itu kekuatan untuk mempercayakan hatinya hanya pada Ahei? Berakhir bahagiakah kisah cinta mereka? 
+    Penginapan sederhana yang AC-nya terlalu dingin membuat Asma merapatkan jaket. Kedua mata gadis itu masih merayapi layar netbook, sebelum kemudian menarik napas.
+(Assalamualaikum Beijing karya Asma Nadia)
+Latar tempat yang terdapat dalam kutipan novel tersebut adalah ....
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2584,7 +2510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2637,9 +2563,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2658,6 +2581,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2667,6 +2593,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2715,7 +2644,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2750,7 +2679,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2962,9 +2891,9 @@
   <dimension ref="A1:O107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3026,8 +2955,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>225</v>
+      <c r="A3" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
@@ -3052,8 +2981,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>225</v>
+      <c r="A4" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -3078,11 +3007,11 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>225</v>
+      <c r="A5" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>25</v>
@@ -3104,8 +3033,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>225</v>
+      <c r="A6" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>30</v>
@@ -3130,8 +3059,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>225</v>
+      <c r="A7" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>36</v>
@@ -3156,8 +3085,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>225</v>
+      <c r="A8" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>42</v>
@@ -3182,8 +3111,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>225</v>
+      <c r="A9" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>53</v>
@@ -3208,8 +3137,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>225</v>
+      <c r="A10" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>54</v>
@@ -3234,8 +3163,8 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>225</v>
+      <c r="A11" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>60</v>
@@ -3260,8 +3189,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>225</v>
+      <c r="A12" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>66</v>
@@ -3286,8 +3215,8 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>225</v>
+      <c r="A13" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>72</v>
@@ -3312,8 +3241,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>225</v>
+      <c r="A14" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>78</v>
@@ -3338,8 +3267,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>225</v>
+      <c r="A15" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>84</v>
@@ -3364,271 +3293,271 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="H16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>225</v>
+      <c r="A17" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="H17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>225</v>
+      <c r="A18" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="H18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>225</v>
+      <c r="A19" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="H19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>225</v>
+      <c r="A20" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>225</v>
+      <c r="A21" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="H21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>225</v>
+      <c r="A22" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="H22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>225</v>
+      <c r="A23" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="H23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>225</v>
+      <c r="A24" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="H24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>225</v>
+      <c r="A25" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="E25" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="F25" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="G25" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="H25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>225</v>
+      <c r="A26" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26" s="12">
         <v>1</v>
@@ -3650,11 +3579,11 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>225</v>
+      <c r="A27" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -3676,11 +3605,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>225</v>
+      <c r="A28" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -3702,245 +3631,245 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>225</v>
+      <c r="A29" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="H29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>225</v>
+      <c r="A30" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="F30" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="H30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>225</v>
+      <c r="A31" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="H31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>225</v>
+      <c r="A32" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>225</v>
+      <c r="A33" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="H33" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>225</v>
+      <c r="A34" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="H34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>225</v>
+      <c r="A35" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>225</v>
+      <c r="A36" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="H36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>225</v>
+      <c r="A37" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="H37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>225</v>
+      <c r="A38" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
@@ -3962,37 +3891,37 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="17" t="s">
         <v>224</v>
       </c>
+      <c r="B39" s="19" t="s">
+        <v>223</v>
+      </c>
       <c r="C39" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="F39" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="H39" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>225</v>
+      <c r="A40" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -4014,46 +3943,46 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>225</v>
+      <c r="A41" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="H41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>225</v>
+      <c r="A42" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>45</v>
@@ -4074,8 +4003,8 @@
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -4083,8 +4012,8 @@
       <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="17"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -4092,8 +4021,8 @@
       <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -4101,8 +4030,8 @@
       <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="17"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -4110,7 +4039,7 @@
       <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="4"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -4119,13 +4048,13 @@
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
       <c r="E49"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
